--- a/public/DataFile/administrasi_file.xlsx
+++ b/public/DataFile/administrasi_file.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atmajabagastia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D23E0AC-7B92-4443-A8F7-020820ACC982}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD0626-6CE5-3A40-AE3C-F7B74F41304D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12460" xr2:uid="{59B4EBEB-453F-4BAB-BC88-D872411C6BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No</t>
   </si>
@@ -33,13 +33,16 @@
     <t>Nama File</t>
   </si>
   <si>
-    <t>SP2D</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>SPBY</t>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>SP4</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BEAEE-463E-4255-AF33-1A6A270DCB7B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -431,6 +434,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/DataFile/administrasi_file.xlsx
+++ b/public/DataFile/administrasi_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atmajabagastia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD0626-6CE5-3A40-AE3C-F7B74F41304D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C42E43-6D8B-F749-BD5D-52AD2DEE687C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12460" xr2:uid="{59B4EBEB-453F-4BAB-BC88-D872411C6BD4}"/>
   </bookViews>
@@ -33,16 +33,16 @@
     <t>Nama File</t>
   </si>
   <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>SP3</t>
-  </si>
-  <si>
-    <t>SP4</t>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>SKJ</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>SHA</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/public/DataFile/administrasi_file.xlsx
+++ b/public/DataFile/administrasi_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atmajabagastia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED5283D-276D-8940-B9B3-CA26F753C34A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E9ADD-8F5D-4BFD-BEDC-9506DB6F437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{59B4EBEB-453F-4BAB-BC88-D872411C6BD4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59B4EBEB-453F-4BAB-BC88-D872411C6BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -33,46 +33,49 @@
     <t>Nama File</t>
   </si>
   <si>
-    <t>File 1</t>
-  </si>
-  <si>
-    <t>File 2</t>
-  </si>
-  <si>
-    <t>File 3</t>
-  </si>
-  <si>
-    <t>File 4</t>
-  </si>
-  <si>
     <t>Penanggu Jawab</t>
   </si>
   <si>
     <t>Umum</t>
   </si>
   <si>
-    <t>Sosial</t>
-  </si>
-  <si>
-    <t>Produksi</t>
-  </si>
-  <si>
-    <t>File 5</t>
-  </si>
-  <si>
-    <t>File 6</t>
-  </si>
-  <si>
-    <t>File 7</t>
-  </si>
-  <si>
-    <t>File 8</t>
-  </si>
-  <si>
-    <t>File 9</t>
-  </si>
-  <si>
-    <t>File 10</t>
+    <t>SP2D</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>DRPP</t>
+  </si>
+  <si>
+    <t>SPBY</t>
+  </si>
+  <si>
+    <t>KAK</t>
+  </si>
+  <si>
+    <t>Form Permintaan</t>
+  </si>
+  <si>
+    <t>Kuitansi</t>
+  </si>
+  <si>
+    <t>Umum/SM</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Tanda Terima</t>
+  </si>
+  <si>
+    <t>SPK</t>
+  </si>
+  <si>
+    <t>PBJ</t>
+  </si>
+  <si>
+    <t>SSP</t>
   </si>
 </sst>
 </file>
@@ -108,8 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,15 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BEAEE-463E-4255-AF33-1A6A270DCB7B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="222" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,117 +450,128 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
